--- a/Font_repository.xlsx
+++ b/Font_repository.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +50,20 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,11 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -302,6 +318,73 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45534D55-F31A-496A-9714-AE5AEEC875F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467476" y="133350"/>
+          <a:ext cx="6229350" cy="6753225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -791,11 +874,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>div&gt;p</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>  div</a:t>
+            <a:t>div&gt;p   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>div</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
@@ -1636,8 +1719,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1653,7 +1736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="238125" y="171450"/>
-          <a:ext cx="6848475" cy="4200525"/>
+          <a:ext cx="6848475" cy="6991350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1727,13 +1810,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>form-group   form-control</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>input-group</a:t>
+            <a:t>form-group   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   form-control</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   input-group</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -1799,7 +1888,28 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>navbar</a:t>
+            <a:t>nav</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> nav-tabs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导航栏</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>navbar navbar-default</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1833,6 +1943,346 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>panel panel-default</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表格</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> table-hover</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>分页</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   pagination </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   pager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>路径</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  breadcrumb</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
             <a:solidFill>
@@ -2944,8 +3394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2978,11 +3428,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804203DA-150A-4D48-9123-231644A06255}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3028,14 +3481,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B78DE2-DBCE-4B63-A96F-F6A25CF649C9}">
   <dimension ref="D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
     <row r="32" spans="4:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Font_repository.xlsx
+++ b/Font_repository.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>包含 （</a:t>
+            <a:t>属性包含 （</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -3394,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
@@ -3428,7 +3428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804203DA-150A-4D48-9123-231644A06255}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
